--- a/distance_10.xlsx
+++ b/distance_10.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tu Tran Ngoc Minh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tu Tran Ngoc Minh\Desktop\heuristics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E280BCD-6272-4F88-9BF6-198209B1A4CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D08BB33-CAE7-465C-9A8F-3F9E20179100}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2160" windowWidth="15375" windowHeight="7995" xr2:uid="{A730F597-0DF2-4308-BB5B-43E94677BE65}"/>
+    <workbookView xWindow="2655" yWindow="435" windowWidth="15375" windowHeight="7995" xr2:uid="{A730F597-0DF2-4308-BB5B-43E94677BE65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="dist">Sheet1!$A$1:$M$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,11 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFA1CDC-C18F-4418-BA75-1A4383AF553E}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,105 +1041,6 @@
         <v>128.45221605</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
